--- a/study_data_example.xlsx
+++ b/study_data_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw.sharepoint.com/sites/MattMillerPhD/Shared Documents/General/Urgent Surgery Study/R scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmiller/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_8EDFD6AFFD9C41A85F31FA4A2B54877F15C56A43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D2745C-2E86-9E47-8C32-274814ECB6A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DB6AC-6A8F-3F45-8CBB-8CBBD1E4EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33840" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="149">
   <si>
     <t>study_id</t>
   </si>
@@ -55,9 +55,6 @@
     <t>planned_procedure</t>
   </si>
   <si>
-    <t>primary_procedure</t>
-  </si>
-  <si>
     <t>emerg_priority</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Incision and Drainage of Right Buttock Abscess</t>
   </si>
   <si>
-    <t>Caesarean section</t>
-  </si>
-  <si>
     <t>E-24hrs Semi-Urgent</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>Left peri-anal abscess incision and drainage +/- Eua</t>
   </si>
   <si>
-    <t>Replacement of hip</t>
-  </si>
-  <si>
     <t>&lt;4hrs</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>LSCS</t>
   </si>
   <si>
-    <t>Incision and drainage of abscess</t>
-  </si>
-  <si>
     <t>&lt;=4hrs-Organ or limb threatening</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>Insertion of left femoral nail. Examination under anaesthetic pelvis +/- SI screws. Open reduction internal fixation left wrist</t>
   </si>
   <si>
-    <t>Thrombectomy</t>
-  </si>
-  <si>
     <t>90665-01</t>
   </si>
   <si>
@@ -331,9 +316,6 @@
     <t>Microlaryngoscopy and exploration of neck wound</t>
   </si>
   <si>
-    <t>Intramedullary nailing of tibia</t>
-  </si>
-  <si>
     <t>&lt;=8hrs-Non-critical but emergent</t>
   </si>
   <si>
@@ -367,9 +349,6 @@
     <t>Lower segment cesarean section</t>
   </si>
   <si>
-    <t>Insertion of extraventricular drain</t>
-  </si>
-  <si>
     <t>30478-02</t>
   </si>
   <si>
@@ -428,9 +407,6 @@
   </si>
   <si>
     <t>ORIF left ankle</t>
-  </si>
-  <si>
-    <t>Microdiscectomy, lumbar</t>
   </si>
   <si>
     <t>30023-00</t>
@@ -498,7 +474,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -537,7 +513,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,15 +810,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,33 +896,30 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2">
         <v>61</v>
@@ -951,16 +934,16 @@
         <v>44579.237066645001</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -968,22 +951,22 @@
       <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1">
+        <v>44313</v>
+      </c>
+      <c r="Q2" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>44313</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
       <c r="W2" t="s">
@@ -998,19 +981,16 @@
       <c r="Z2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" t="s">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3">
         <v>73</v>
@@ -1025,69 +1005,66 @@
         <v>43600.255096414301</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" s="1">
+        <v>44057</v>
+      </c>
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="1">
-        <v>44057</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>48</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>54</v>
@@ -1102,69 +1079,66 @@
         <v>43668.921607234297</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" s="1">
+        <v>43928</v>
+      </c>
+      <c r="Q4" t="s">
         <v>60</v>
       </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>61</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="1">
-        <v>43928</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>63</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>64</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>65</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>66</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>67</v>
       </c>
-      <c r="X4" t="s">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1179,66 +1153,63 @@
         <v>44403.049513398801</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" s="1">
+        <v>43973</v>
+      </c>
+      <c r="Q5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
+      <c r="U5" t="s">
         <v>76</v>
       </c>
-      <c r="N5" t="s">
+      <c r="V5" t="s">
         <v>77</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="W5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="1">
-        <v>43973</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="X5" t="s">
         <v>79</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>80</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
         <v>81</v>
       </c>
-      <c r="X5" t="s">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
       </c>
       <c r="D6">
         <v>72</v>
@@ -1253,66 +1224,63 @@
         <v>43130.723013975599</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="1">
+        <v>43990</v>
+      </c>
+      <c r="Q6" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="S6" t="s">
         <v>89</v>
       </c>
-      <c r="K6" t="s">
+      <c r="V6" t="s">
         <v>90</v>
       </c>
-      <c r="L6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="1">
-        <v>43990</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="Y6" t="s">
         <v>93</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6" t="s">
         <v>94</v>
       </c>
-      <c r="W6" t="s">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="X6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>33</v>
@@ -1327,66 +1295,63 @@
         <v>44084.960991797197</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43502</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R7" t="s">
         <v>101</v>
       </c>
-      <c r="K7" t="s">
+      <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" t="s">
+      <c r="W7" t="s">
         <v>103</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Y7" t="s">
         <v>104</v>
       </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Z7" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="1">
-        <v>43502</v>
-      </c>
-      <c r="R7" t="s">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" t="s">
-        <v>108</v>
-      </c>
-      <c r="X7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -1401,66 +1366,63 @@
         <v>43541.374025218902</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="1">
+        <v>43983</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" t="s">
         <v>113</v>
       </c>
-      <c r="K8" t="s">
+      <c r="X8" t="s">
         <v>114</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Y8" t="s">
         <v>115</v>
       </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="Q8" s="1">
-        <v>43983</v>
-      </c>
-      <c r="R8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" t="s">
-        <v>118</v>
-      </c>
-      <c r="U8" t="s">
-        <v>119</v>
-      </c>
-      <c r="W8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -1475,66 +1437,63 @@
         <v>43827.6150067083</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="1">
+        <v>45051</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" t="s">
         <v>124</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Z9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>125</v>
       </c>
-      <c r="K9" t="s">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>126</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>45051</v>
-      </c>
-      <c r="R9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T9" t="s">
-        <v>129</v>
-      </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>133</v>
       </c>
       <c r="D10">
         <v>49</v>
@@ -1549,60 +1508,57 @@
         <v>44847.567168128502</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="1">
+        <v>43844</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>134</v>
       </c>
-      <c r="K10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>43844</v>
-      </c>
-      <c r="R10" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" t="s">
-        <v>139</v>
-      </c>
-      <c r="X10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>142</v>
-      </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>42</v>
@@ -1617,49 +1573,46 @@
         <v>44860.454057990297</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="1">
+        <v>44198</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>141</v>
+      </c>
+      <c r="W11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" t="s">
         <v>143</v>
-      </c>
-      <c r="K11" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>44198</v>
-      </c>
-      <c r="R11" t="s">
-        <v>147</v>
-      </c>
-      <c r="U11" t="s">
-        <v>148</v>
-      </c>
-      <c r="W11" t="s">
-        <v>149</v>
-      </c>
-      <c r="X11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
